--- a/data/planets_moons.xlsx
+++ b/data/planets_moons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julie.fisher/Documents/learning/machine_learning/experiments/datascience_diary/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julie.fisher/Documents/Me/datascience_diaries/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B231F1-1A30-DD41-A5E1-8446309DE748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774ED991-C4AF-1643-B71A-C149B4B3ABC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{17F23864-C591-48DA-ABD3-CB397D2BC25F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{17F23864-C591-48DA-ABD3-CB397D2BC25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="554">
   <si>
     <t>No</t>
   </si>
@@ -767,9 +769,6 @@
   </si>
   <si>
     <t>1.6±0.6</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Pallene</t>
@@ -2094,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC265B33-381B-4063-A323-2251A4239B5C}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AG22" sqref="AG22"/>
     </sheetView>
@@ -2135,79 +2134,79 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" t="s">
         <v>515</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" t="s">
         <v>516</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J1" t="s">
         <v>552</v>
       </c>
-      <c r="F1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>520</v>
       </c>
-      <c r="J1" t="s">
-        <v>553</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>521</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>522</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>523</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>524</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>525</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>526</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>527</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>528</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>529</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>530</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>531</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>532</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>533</v>
-      </c>
-      <c r="X1" t="s">
-        <v>534</v>
       </c>
       <c r="Y1" t="s">
         <v>15</v>
       </c>
       <c r="Z1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA1" t="s">
         <v>535</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -3056,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C12" s="4">
         <v>1.46E-2</v>
@@ -3156,40 +3155,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" t="s">
         <v>443</v>
-      </c>
-      <c r="D1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E1" t="s">
-        <v>444</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J1" t="s">
         <v>446</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L1" t="s">
         <v>447</v>
-      </c>
-      <c r="K1" t="s">
-        <v>441</v>
-      </c>
-      <c r="L1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3284,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3628,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C513D695-6D07-4171-86C5-E79B57360CB6}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174:G178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3647,22 +3646,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" t="s">
         <v>548</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" t="s">
         <v>534</v>
       </c>
-      <c r="D1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F1" t="s">
-        <v>535</v>
-      </c>
       <c r="G1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5702,80 +5701,56 @@
       <c r="D90">
         <v>0.5</v>
       </c>
-      <c r="E90" t="s">
-        <v>243</v>
-      </c>
-      <c r="F90" t="s">
-        <v>243</v>
-      </c>
       <c r="G90" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B91">
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D91">
         <v>0.5</v>
       </c>
-      <c r="E91" t="s">
-        <v>243</v>
-      </c>
-      <c r="F91" t="s">
-        <v>243</v>
-      </c>
       <c r="G91" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B92">
         <v>2.9999999999999999E-7</v>
       </c>
       <c r="C92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D92">
         <v>0.5</v>
       </c>
-      <c r="E92" t="s">
-        <v>243</v>
-      </c>
-      <c r="F92" t="s">
-        <v>243</v>
-      </c>
       <c r="G92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>247</v>
+      </c>
+      <c r="B93" t="s">
         <v>248</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>249</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>250</v>
-      </c>
-      <c r="D93" t="s">
-        <v>251</v>
-      </c>
-      <c r="E93" t="s">
-        <v>243</v>
-      </c>
-      <c r="F93" t="s">
-        <v>243</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -5783,7 +5758,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B94">
         <v>9.9999999999999995E-8</v>
@@ -5794,19 +5769,13 @@
       <c r="D94">
         <v>0.5</v>
       </c>
-      <c r="E94" t="s">
-        <v>243</v>
-      </c>
-      <c r="F94" t="s">
-        <v>243</v>
-      </c>
       <c r="G94" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B95">
         <v>4.0000000000000002E-9</v>
@@ -5817,19 +5786,13 @@
       <c r="D95">
         <v>0.5</v>
       </c>
-      <c r="E95" t="s">
-        <v>243</v>
-      </c>
-      <c r="F95" t="s">
-        <v>243</v>
-      </c>
       <c r="G95" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B96">
         <v>3.3E-4</v>
@@ -5852,7 +5815,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B97">
         <v>5.5000000000000003E-4</v>
@@ -5864,7 +5827,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F97">
         <v>0.06</v>
@@ -5875,7 +5838,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B98">
         <v>1.8000000000000001E-4</v>
@@ -5898,7 +5861,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B99">
         <v>8.0000000000000007E-5</v>
@@ -5921,7 +5884,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B100">
         <v>1.4E-5</v>
@@ -5944,7 +5907,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B101">
         <v>2.2000000000000001E-4</v>
@@ -5967,7 +5930,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B102">
         <v>1.4E-5</v>
@@ -5979,7 +5942,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F102">
         <v>0.06</v>
@@ -5990,7 +5953,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B103">
         <v>1.4E-3</v>
@@ -6002,7 +5965,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E103" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F103">
         <v>0.06</v>
@@ -6013,7 +5976,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B104">
         <v>2.0999999999999999E-5</v>
@@ -6036,7 +5999,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B105">
         <v>5.1E-5</v>
@@ -6059,7 +6022,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B106">
         <v>2.5999999999999999E-3</v>
@@ -6071,7 +6034,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E106" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F106">
         <v>0.06</v>
@@ -6082,7 +6045,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B107">
         <v>1.4E-5</v>
@@ -6105,7 +6068,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B108">
         <v>2.3E-5</v>
@@ -6117,7 +6080,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E108" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F108">
         <v>0.04</v>
@@ -6128,7 +6091,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -6140,7 +6103,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E109" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F109">
         <v>0.04</v>
@@ -6151,7 +6114,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -6163,7 +6126,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F110">
         <v>0.04</v>
@@ -6174,7 +6137,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -6186,7 +6149,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F111">
         <v>0.04</v>
@@ -6197,7 +6160,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -6209,7 +6172,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F112">
         <v>0.04</v>
@@ -6220,7 +6183,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -6232,7 +6195,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F113">
         <v>0.04</v>
@@ -6243,7 +6206,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -6255,7 +6218,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F114">
         <v>0.04</v>
@@ -6266,7 +6229,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -6278,7 +6241,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F115">
         <v>0.04</v>
@@ -6289,7 +6252,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -6301,7 +6264,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F116">
         <v>0.04</v>
@@ -6312,7 +6275,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -6335,7 +6298,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -6358,7 +6321,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6370,7 +6333,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E119" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F119">
         <v>0.04</v>
@@ -6381,7 +6344,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6393,7 +6356,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F120">
         <v>0.04</v>
@@ -6404,7 +6367,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6416,7 +6379,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F121">
         <v>0.04</v>
@@ -6427,7 +6390,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6439,7 +6402,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F122">
         <v>0.04</v>
@@ -6450,7 +6413,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6462,7 +6425,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F123">
         <v>0.04</v>
@@ -6473,7 +6436,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6496,7 +6459,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6508,7 +6471,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E125" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F125">
         <v>0.04</v>
@@ -6519,7 +6482,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6531,7 +6494,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F126">
         <v>0.04</v>
@@ -6542,7 +6505,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6554,7 +6517,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F127">
         <v>0.04</v>
@@ -6565,7 +6528,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6577,7 +6540,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E128" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F128">
         <v>0.04</v>
@@ -6588,7 +6551,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6600,7 +6563,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F129">
         <v>0.04</v>
@@ -6611,7 +6574,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6623,7 +6586,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E130" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F130">
         <v>0.04</v>
@@ -6634,7 +6597,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6646,7 +6609,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E131" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F131">
         <v>0.04</v>
@@ -6657,7 +6620,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6669,7 +6632,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F132">
         <v>0.04</v>
@@ -6680,22 +6643,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>304</v>
+      </c>
+      <c r="B133" t="s">
         <v>305</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>306</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>307</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>308</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>309</v>
-      </c>
-      <c r="F133" t="s">
-        <v>310</v>
       </c>
       <c r="G133" t="s">
         <v>12</v>
@@ -6703,22 +6666,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" t="s">
         <v>311</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>312</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>313</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>314</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>315</v>
-      </c>
-      <c r="F134" t="s">
-        <v>316</v>
       </c>
       <c r="G134" t="s">
         <v>12</v>
@@ -6726,22 +6689,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>316</v>
+      </c>
+      <c r="B135" t="s">
         <v>317</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>318</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>319</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>320</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>321</v>
-      </c>
-      <c r="F135" t="s">
-        <v>322</v>
       </c>
       <c r="G135" t="s">
         <v>12</v>
@@ -6749,22 +6712,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>322</v>
+      </c>
+      <c r="B136" t="s">
         <v>323</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>324</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>325</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
+        <v>308</v>
+      </c>
+      <c r="F136" t="s">
         <v>326</v>
-      </c>
-      <c r="E136" t="s">
-        <v>309</v>
-      </c>
-      <c r="F136" t="s">
-        <v>327</v>
       </c>
       <c r="G136" t="s">
         <v>12</v>
@@ -6772,22 +6735,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>327</v>
+      </c>
+      <c r="B137" t="s">
         <v>328</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>329</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>330</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>331</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>332</v>
-      </c>
-      <c r="F137" t="s">
-        <v>333</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
@@ -6795,19 +6758,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B138">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C138" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D138">
         <v>1.3</v>
       </c>
       <c r="E138" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F138">
         <v>7.0000000000000007E-2</v>
@@ -6818,19 +6781,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B139">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="C139" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D139">
         <v>1.3</v>
       </c>
       <c r="E139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F139">
         <v>7.0000000000000007E-2</v>
@@ -6841,22 +6804,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B140">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="C140" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D140">
         <v>1.3</v>
       </c>
       <c r="E140" t="s">
+        <v>341</v>
+      </c>
+      <c r="F140" t="s">
         <v>342</v>
-      </c>
-      <c r="F140" t="s">
-        <v>343</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
@@ -6864,22 +6827,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B141">
         <v>2.29E-2</v>
       </c>
       <c r="C141" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D141">
         <v>1.3</v>
       </c>
       <c r="E141" t="s">
+        <v>345</v>
+      </c>
+      <c r="F141" t="s">
         <v>346</v>
-      </c>
-      <c r="F141" t="s">
-        <v>347</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -6887,22 +6850,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B142">
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="C142" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D142">
         <v>1.3</v>
       </c>
       <c r="E142" t="s">
+        <v>349</v>
+      </c>
+      <c r="F142" t="s">
         <v>350</v>
-      </c>
-      <c r="F142" t="s">
-        <v>351</v>
       </c>
       <c r="G142" t="s">
         <v>12</v>
@@ -6910,22 +6873,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B143">
         <v>3.7199999999999997E-2</v>
       </c>
       <c r="C143" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D143">
         <v>1.3</v>
       </c>
       <c r="E143" t="s">
+        <v>353</v>
+      </c>
+      <c r="F143" t="s">
         <v>354</v>
-      </c>
-      <c r="F143" t="s">
-        <v>355</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -6933,22 +6896,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B144">
         <v>0.11219999999999999</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D144">
         <v>1.3</v>
       </c>
       <c r="E144" t="s">
+        <v>357</v>
+      </c>
+      <c r="F144" t="s">
         <v>358</v>
-      </c>
-      <c r="F144" t="s">
-        <v>359</v>
       </c>
       <c r="G144" t="s">
         <v>12</v>
@@ -6956,22 +6919,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B145">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="C145" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D145">
         <v>1.3</v>
       </c>
       <c r="E145" t="s">
+        <v>361</v>
+      </c>
+      <c r="F145" t="s">
         <v>362</v>
-      </c>
-      <c r="F145" t="s">
-        <v>363</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -6979,22 +6942,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B146">
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="C146" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D146">
         <v>1.3</v>
       </c>
       <c r="E146" t="s">
+        <v>365</v>
+      </c>
+      <c r="F146" t="s">
         <v>366</v>
-      </c>
-      <c r="F146" t="s">
-        <v>367</v>
       </c>
       <c r="G146" t="s">
         <v>12</v>
@@ -7002,22 +6965,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B147">
         <v>0.19309999999999999</v>
       </c>
       <c r="C147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D147">
         <v>1.3</v>
       </c>
       <c r="E147" t="s">
+        <v>369</v>
+      </c>
+      <c r="F147" t="s">
         <v>370</v>
-      </c>
-      <c r="F147" t="s">
-        <v>371</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -7025,7 +6988,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B148">
         <v>0.02</v>
@@ -7048,7 +7011,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B149">
         <v>0.18</v>
@@ -7071,7 +7034,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B150">
         <v>6.6E-3</v>
@@ -7094,7 +7057,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B151">
         <v>5.7999999999999996E-3</v>
@@ -7117,7 +7080,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B152">
         <v>1.6999999999999999E-3</v>
@@ -7129,7 +7092,7 @@
         <v>1.5</v>
       </c>
       <c r="E152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F152">
         <v>0.04</v>
@@ -7140,7 +7103,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B153">
         <v>3.1E-4</v>
@@ -7152,7 +7115,7 @@
         <v>1.5</v>
       </c>
       <c r="E153" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F153">
         <v>0.04</v>
@@ -7163,7 +7126,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B154">
         <v>5.5999999999999995E-4</v>
@@ -7175,7 +7138,7 @@
         <v>1.5</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F154">
         <v>0.04</v>
@@ -7186,7 +7149,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B155">
         <v>4.2000000000000002E-4</v>
@@ -7198,7 +7161,7 @@
         <v>1.5</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F155">
         <v>0.04</v>
@@ -7209,7 +7172,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B156">
         <v>4.2000000000000002E-4</v>
@@ -7221,7 +7184,7 @@
         <v>1.5</v>
       </c>
       <c r="E156" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F156">
         <v>0.04</v>
@@ -7232,22 +7195,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B157">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="C157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D157">
         <v>1.3</v>
       </c>
       <c r="E157" t="s">
+        <v>384</v>
+      </c>
+      <c r="F157" t="s">
         <v>385</v>
-      </c>
-      <c r="F157" t="s">
-        <v>386</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
@@ -7255,22 +7218,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B158">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="C158" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D158">
         <v>1.3</v>
       </c>
       <c r="E158" t="s">
+        <v>388</v>
+      </c>
+      <c r="F158" t="s">
         <v>389</v>
-      </c>
-      <c r="F158" t="s">
-        <v>390</v>
       </c>
       <c r="G158" t="s">
         <v>12</v>
@@ -7278,22 +7241,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B159">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C159" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D159">
         <v>1.3</v>
       </c>
       <c r="E159" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F159" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -7301,16 +7264,16 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>393</v>
+      </c>
+      <c r="B160" t="s">
         <v>394</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>395</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>396</v>
-      </c>
-      <c r="D160" t="s">
-        <v>397</v>
       </c>
       <c r="E160">
         <v>13.54</v>
@@ -7324,13 +7287,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B161">
         <v>2.06</v>
       </c>
       <c r="C161" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D161">
         <v>1.5</v>
@@ -7347,13 +7310,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B162">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C162" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D162">
         <v>1.3</v>
@@ -7370,13 +7333,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B163">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C163" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D163">
         <v>1.3</v>
@@ -7393,13 +7356,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B164">
         <v>0.14000000000000001</v>
       </c>
       <c r="C164" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D164">
         <v>1.3</v>
@@ -7416,13 +7379,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B165">
         <v>0.25</v>
       </c>
       <c r="C165" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D165">
         <v>1.3</v>
@@ -7439,13 +7402,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B166">
         <v>0.33</v>
       </c>
       <c r="C166" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D166">
         <v>1.3</v>
@@ -7462,13 +7425,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B167">
         <v>3.36</v>
       </c>
       <c r="C167" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D167">
         <v>1.3</v>
@@ -7485,7 +7448,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B168">
         <v>1.2E-2</v>
@@ -7497,7 +7460,7 @@
         <v>1.5</v>
       </c>
       <c r="E168" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F168">
         <v>0.04</v>
@@ -7508,7 +7471,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B169">
         <v>3.3E-3</v>
@@ -7520,7 +7483,7 @@
         <v>1.5</v>
       </c>
       <c r="E169" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F169">
         <v>0.04</v>
@@ -7531,7 +7494,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B170">
         <v>4.4999999999999997E-3</v>
@@ -7543,7 +7506,7 @@
         <v>1.5</v>
       </c>
       <c r="E170" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F170">
         <v>0.04</v>
@@ -7554,7 +7517,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B171">
         <v>3.8999999999999998E-3</v>
@@ -7566,7 +7529,7 @@
         <v>1.5</v>
       </c>
       <c r="E171" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F171">
         <v>0.04</v>
@@ -7577,7 +7540,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B172">
         <v>1.0999999999999999E-2</v>
@@ -7589,7 +7552,7 @@
         <v>1.5</v>
       </c>
       <c r="E172" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F172">
         <v>0.04</v>
@@ -7600,7 +7563,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B173">
         <v>2.9999999999999997E-4</v>
@@ -7612,7 +7575,7 @@
         <v>1.3</v>
       </c>
       <c r="E173" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F173">
         <v>0.1</v>
@@ -7623,22 +7586,22 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>419</v>
+      </c>
+      <c r="B174" t="s">
         <v>420</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>421</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>422</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>423</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>424</v>
-      </c>
-      <c r="F174" t="s">
-        <v>425</v>
       </c>
       <c r="G174" t="s">
         <v>14</v>
@@ -7646,19 +7609,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>425</v>
+      </c>
+      <c r="B175" t="s">
         <v>426</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>427</v>
-      </c>
-      <c r="C175" t="s">
-        <v>428</v>
       </c>
       <c r="D175">
         <v>2.1</v>
       </c>
       <c r="E175" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F175">
         <v>0.35</v>
@@ -7669,19 +7632,19 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>429</v>
+      </c>
+      <c r="B176" t="s">
         <v>430</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>431</v>
-      </c>
-      <c r="C176" t="s">
-        <v>432</v>
       </c>
       <c r="D176">
         <v>0.8</v>
       </c>
       <c r="E176" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F176">
         <v>0.35</v>
@@ -7692,10 +7655,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>433</v>
+      </c>
+      <c r="B177" t="s">
         <v>434</v>
-      </c>
-      <c r="B177" t="s">
-        <v>435</v>
       </c>
       <c r="C177">
         <v>14</v>
@@ -7704,7 +7667,7 @@
         <v>1.4</v>
       </c>
       <c r="E177" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F177">
         <v>0.35</v>
@@ -7715,19 +7678,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>436</v>
+      </c>
+      <c r="B178" t="s">
         <v>437</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s">
         <v>438</v>
-      </c>
-      <c r="C178">
-        <v>10</v>
-      </c>
-      <c r="D178" t="s">
-        <v>243</v>
-      </c>
-      <c r="E178" t="s">
-        <v>439</v>
       </c>
       <c r="F178">
         <v>0.35</v>
@@ -7745,8 +7705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E25DD6-1A83-4F1F-B0C3-EDC91C87E9FD}">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="J168" sqref="J168:J170"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7754,7 +7714,7 @@
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="18.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -7766,31 +7726,31 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" t="s">
         <v>538</v>
       </c>
-      <c r="C1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>539</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J1" t="s">
         <v>540</v>
-      </c>
-      <c r="F1" t="s">
-        <v>543</v>
-      </c>
-      <c r="G1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I1" t="s">
-        <v>523</v>
-      </c>
-      <c r="J1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7804,7 +7764,7 @@
         <v>3476</v>
       </c>
       <c r="H2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I2">
         <v>27.321999999999999</v>
@@ -7821,7 +7781,7 @@
         <v>1877</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D3" s="1">
         <v>23460</v>
@@ -7830,7 +7790,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I3">
         <v>1.2629999999999999</v>
@@ -7847,7 +7807,7 @@
         <v>1877</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D4" s="1">
         <v>9270</v>
@@ -7859,7 +7819,7 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I4">
         <v>0.31900000000000001</v>
@@ -7876,7 +7836,7 @@
         <v>1979</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D5" s="1">
         <v>128980</v>
@@ -7888,7 +7848,7 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I5">
         <v>0.29799999999999999</v>
@@ -7905,7 +7865,7 @@
         <v>2001</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1">
         <v>23547000</v>
@@ -7914,7 +7874,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I6">
         <v>736</v>
@@ -7931,7 +7891,7 @@
         <v>1892</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D7" s="1">
         <v>181300</v>
@@ -7943,7 +7903,7 @@
         <v>262</v>
       </c>
       <c r="H7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I7">
         <v>0.498</v>
@@ -7960,7 +7920,7 @@
         <v>1951</v>
       </c>
       <c r="C8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D8" s="1">
         <v>21200000</v>
@@ -7969,7 +7929,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I8">
         <v>631</v>
@@ -7986,7 +7946,7 @@
         <v>2003</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D9" s="1">
         <v>23807655</v>
@@ -7995,7 +7955,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I9">
         <v>748.8</v>
@@ -8012,7 +7972,7 @@
         <v>2002</v>
       </c>
       <c r="C10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D10" s="1">
         <v>23064000</v>
@@ -8021,7 +7981,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I10">
         <v>715.6</v>
@@ -8038,7 +7998,7 @@
         <v>2001</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D11" s="1">
         <v>24122000</v>
@@ -8047,7 +8007,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I11">
         <v>753</v>
@@ -8064,7 +8024,7 @@
         <v>1610</v>
       </c>
       <c r="C12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D12" s="1">
         <v>1883000</v>
@@ -8075,7 +8035,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I12">
         <v>16.689</v>
@@ -8092,7 +8052,7 @@
         <v>1938</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D13" s="1">
         <v>22600000</v>
@@ -8101,7 +8061,7 @@
         <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I13">
         <v>692</v>
@@ -8118,7 +8078,7 @@
         <v>2000</v>
       </c>
       <c r="C14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D14" s="1">
         <v>24200000</v>
@@ -8127,7 +8087,7 @@
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I14">
         <v>774</v>
@@ -8144,7 +8104,7 @@
         <v>2003</v>
       </c>
       <c r="C15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D15" s="1">
         <v>17100000</v>
@@ -8153,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I15">
         <v>456.5</v>
@@ -8170,7 +8130,7 @@
         <v>2000</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D16" s="1">
         <v>23179000</v>
@@ -8179,7 +8139,7 @@
         <v>3.8</v>
       </c>
       <c r="H16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I16">
         <v>741</v>
@@ -8196,7 +8156,7 @@
         <v>2003</v>
       </c>
       <c r="C17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D17" s="1">
         <v>24000000</v>
@@ -8205,7 +8165,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I17">
         <v>737.8</v>
@@ -8222,7 +8182,7 @@
         <v>1905</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D18" s="1">
         <v>11737000</v>
@@ -8231,7 +8191,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I18">
         <v>259.64999999999998</v>
@@ -8248,7 +8208,7 @@
         <v>2000</v>
       </c>
       <c r="C19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D19" s="1">
         <v>23279000</v>
@@ -8257,7 +8217,7 @@
         <v>3.2</v>
       </c>
       <c r="H19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I19">
         <v>672</v>
@@ -8274,7 +8234,7 @@
         <v>2001</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D20" s="1">
         <v>21017000</v>
@@ -8283,7 +8243,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I20">
         <v>622</v>
@@ -8300,7 +8260,7 @@
         <v>2003</v>
       </c>
       <c r="C21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D21" s="1">
         <v>24557295</v>
@@ -8309,7 +8269,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I21">
         <v>746.4</v>
@@ -8326,7 +8286,7 @@
         <v>2001</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D22" s="1">
         <v>19394000</v>
@@ -8335,7 +8295,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I22">
         <v>534</v>
@@ -8352,7 +8312,7 @@
         <v>1610</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D23" s="1">
         <v>670900</v>
@@ -8361,7 +8321,7 @@
         <v>3126</v>
       </c>
       <c r="H23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I23">
         <v>3.5510000000000002</v>
@@ -8378,7 +8338,7 @@
         <v>2001</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D24" s="1">
         <v>23219000</v>
@@ -8387,7 +8347,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I24">
         <v>713</v>
@@ -8404,7 +8364,7 @@
         <v>1610</v>
       </c>
       <c r="C25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D25" s="1">
         <v>1070000</v>
@@ -8413,7 +8373,7 @@
         <v>5276</v>
       </c>
       <c r="H25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I25">
         <v>7.1550000000000002</v>
@@ -8430,7 +8390,7 @@
         <v>2000</v>
       </c>
       <c r="C26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D26" s="1">
         <v>21105000</v>
@@ -8439,7 +8399,7 @@
         <v>4.3</v>
       </c>
       <c r="H26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I26">
         <v>595</v>
@@ -8456,7 +8416,7 @@
         <v>2003</v>
       </c>
       <c r="C27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D27" s="1">
         <v>24514095</v>
@@ -8465,7 +8425,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I27">
         <v>781.6</v>
@@ -8482,7 +8442,7 @@
         <v>2003</v>
       </c>
       <c r="C28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D28" s="1">
         <v>10972830</v>
@@ -8491,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I28">
         <v>233.8</v>
@@ -8508,7 +8468,7 @@
         <v>2001</v>
       </c>
       <c r="C29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D29" s="1">
         <v>21252000</v>
@@ -8517,7 +8477,7 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I29">
         <v>630</v>
@@ -8534,7 +8494,7 @@
         <v>1904</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D30" s="1">
         <v>11480000</v>
@@ -8543,7 +8503,7 @@
         <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I30">
         <v>250.57</v>
@@ -8560,7 +8520,7 @@
         <v>1610</v>
       </c>
       <c r="C31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D31" s="1">
         <v>421600</v>
@@ -8571,7 +8531,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I31">
         <v>1.7689999999999999</v>
@@ -8588,7 +8548,7 @@
         <v>2000</v>
       </c>
       <c r="C32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D32" s="1">
         <v>21269000</v>
@@ -8597,7 +8557,7 @@
         <v>5.2</v>
       </c>
       <c r="H32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I32">
         <v>657</v>
@@ -8614,7 +8574,7 @@
         <v>2000</v>
       </c>
       <c r="C33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D33" s="1">
         <v>23217000</v>
@@ -8623,7 +8583,7 @@
         <v>3.8</v>
       </c>
       <c r="H33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I33">
         <v>712</v>
@@ -8640,7 +8600,7 @@
         <v>2001</v>
       </c>
       <c r="C34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D34" s="1">
         <v>23124000</v>
@@ -8649,7 +8609,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I34">
         <v>609</v>
@@ -8666,7 +8626,7 @@
         <v>2003</v>
       </c>
       <c r="C35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D35" s="1">
         <v>22395390</v>
@@ -8675,7 +8635,7 @@
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I35">
         <v>683</v>
@@ -8692,7 +8652,7 @@
         <v>2000</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D36" s="1">
         <v>23583000</v>
@@ -8701,7 +8661,7 @@
         <v>5.2</v>
       </c>
       <c r="H36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I36">
         <v>760</v>
@@ -8718,7 +8678,7 @@
         <v>2003</v>
       </c>
       <c r="C37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D37" s="1">
         <v>24543000</v>
@@ -8727,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I37">
         <v>779.2</v>
@@ -8744,7 +8704,7 @@
         <v>1974</v>
       </c>
       <c r="C38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D38" s="1">
         <v>11094000</v>
@@ -8753,7 +8713,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I38">
         <v>238.72</v>
@@ -8770,7 +8730,7 @@
         <v>1938</v>
       </c>
       <c r="C39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D39" s="1">
         <v>11720000</v>
@@ -8779,7 +8739,7 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I39">
         <v>259.22000000000003</v>
@@ -8796,7 +8756,7 @@
         <v>2000</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D40" s="1">
         <v>23806000</v>
@@ -8805,7 +8765,7 @@
         <v>5.4</v>
       </c>
       <c r="H40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I40">
         <v>771</v>
@@ -8822,7 +8782,7 @@
         <v>1979</v>
       </c>
       <c r="C41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D41" s="1">
         <v>127960</v>
@@ -8831,7 +8791,7 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I41">
         <v>0.29499999999999998</v>
@@ -8848,7 +8808,7 @@
         <v>2003</v>
       </c>
       <c r="C42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D42" s="1">
         <v>21069000</v>
@@ -8857,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I42">
         <v>620.04</v>
@@ -8874,7 +8834,7 @@
         <v>2001</v>
       </c>
       <c r="C43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" s="1">
         <v>21168000</v>
@@ -8883,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I43">
         <v>617</v>
@@ -8900,7 +8860,7 @@
         <v>1908</v>
       </c>
       <c r="C44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D44" s="1">
         <v>23500000</v>
@@ -8909,7 +8869,7 @@
         <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I44">
         <v>735</v>
@@ -8926,7 +8886,7 @@
         <v>2001</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D45" s="1">
         <v>23029000</v>
@@ -8935,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I45">
         <v>715</v>
@@ -8952,7 +8912,7 @@
         <v>2000</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D46" s="1">
         <v>21147000</v>
@@ -8961,7 +8921,7 @@
         <v>6.8</v>
       </c>
       <c r="H46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I46">
         <v>632</v>
@@ -8978,7 +8938,7 @@
         <v>1914</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D47" s="1">
         <v>23700700</v>
@@ -8987,7 +8947,7 @@
         <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I47">
         <v>758</v>
@@ -9004,7 +8964,7 @@
         <v>2001</v>
       </c>
       <c r="C48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D48" s="1">
         <v>23808000</v>
@@ -9013,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I48">
         <v>732</v>
@@ -9030,7 +8990,7 @@
         <v>2000</v>
       </c>
       <c r="C49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D49" s="1">
         <v>12555000</v>
@@ -9039,7 +8999,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I49">
         <v>284.3</v>
@@ -9056,7 +9016,7 @@
         <v>2003</v>
       </c>
       <c r="C50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D50" s="1">
         <v>28570410</v>
@@ -9065,7 +9025,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I50">
         <v>982.5</v>
@@ -9082,7 +9042,7 @@
         <v>2003</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D51" s="1">
         <v>18339885</v>
@@ -9091,7 +9051,7 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I51">
         <v>504</v>
@@ -9108,7 +9068,7 @@
         <v>2003</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D52" s="1">
         <v>23257920</v>
@@ -9117,7 +9077,7 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I52">
         <v>723.2</v>
@@ -9134,7 +9094,7 @@
         <v>2003</v>
       </c>
       <c r="C53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D53" s="1">
         <v>24084180</v>
@@ -9143,7 +9103,7 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I53">
         <v>759.7</v>
@@ -9160,7 +9120,7 @@
         <v>2003</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D54" s="1">
         <v>22441680</v>
@@ -9169,7 +9129,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I54">
         <v>683</v>
@@ -9186,7 +9146,7 @@
         <v>2003</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D55" s="1">
         <v>24249600</v>
@@ -9195,7 +9155,7 @@
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I55">
         <v>767</v>
@@ -9212,7 +9172,7 @@
         <v>2003</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D56" s="1">
         <v>19002480</v>
@@ -9221,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I56">
         <v>533.29999999999995</v>
@@ -9238,7 +9198,7 @@
         <v>2003</v>
       </c>
       <c r="C57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D57" s="1">
         <v>22000000</v>
@@ -9247,7 +9207,7 @@
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I57">
         <v>668.4</v>
@@ -9264,7 +9224,7 @@
         <v>2003</v>
       </c>
       <c r="C58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D58" s="1">
         <v>21000000</v>
@@ -9273,7 +9233,7 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I58">
         <v>595.4</v>
@@ -9290,7 +9250,7 @@
         <v>2003</v>
       </c>
       <c r="C59" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D59" s="1">
         <v>22000000</v>
@@ -9299,7 +9259,7 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I59">
         <v>690.3</v>
@@ -9316,7 +9276,7 @@
         <v>2003</v>
       </c>
       <c r="C60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D60" s="1">
         <v>20700000</v>
@@ -9325,7 +9285,7 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I60">
         <v>606.29999999999995</v>
@@ -9342,7 +9302,7 @@
         <v>2003</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D61" s="1">
         <v>22800000</v>
@@ -9351,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I61">
         <v>701.3</v>
@@ -9368,7 +9328,7 @@
         <v>2003</v>
       </c>
       <c r="C62" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D62" s="1">
         <v>23563000</v>
@@ -9377,7 +9337,7 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I62">
         <v>732.44</v>
@@ -9394,7 +9354,7 @@
         <v>2000</v>
       </c>
       <c r="C63" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D63" s="1">
         <v>23360000</v>
@@ -9403,7 +9363,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I63">
         <v>687</v>
@@ -9420,7 +9380,7 @@
         <v>1979</v>
       </c>
       <c r="C64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D64" s="1">
         <v>221900</v>
@@ -9429,7 +9389,7 @@
         <v>100</v>
       </c>
       <c r="H64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I64">
         <v>0.67500000000000004</v>
@@ -9446,7 +9406,7 @@
         <v>2003</v>
       </c>
       <c r="C65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D65" s="1">
         <v>21162000</v>
@@ -9455,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I65">
         <v>628.09</v>
@@ -9472,7 +9432,7 @@
         <v>1975</v>
       </c>
       <c r="C66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D66" s="1">
         <v>7507000</v>
@@ -9481,7 +9441,7 @@
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I66">
         <v>130.07</v>
@@ -9498,7 +9458,7 @@
         <v>2001</v>
       </c>
       <c r="C67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D67" s="1">
         <v>21312000</v>
@@ -9507,7 +9467,7 @@
         <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I67">
         <v>615</v>
@@ -9518,13 +9478,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B68">
         <v>2005</v>
       </c>
       <c r="C68" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D68" s="1">
         <v>20735000</v>
@@ -9533,7 +9493,7 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I68" s="3">
         <v>1116.5</v>
@@ -9544,13 +9504,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B69">
         <v>2000</v>
       </c>
       <c r="C69" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D69" s="1">
         <v>16392000</v>
@@ -9559,7 +9519,7 @@
         <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I69">
         <v>783</v>
@@ -9570,13 +9530,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B70">
         <v>2004</v>
       </c>
       <c r="C70" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D70" s="1">
         <v>197700</v>
@@ -9585,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I70">
         <v>1.04</v>
@@ -9602,7 +9562,7 @@
         <v>1980</v>
       </c>
       <c r="C71" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D71" s="1">
         <v>137640</v>
@@ -9614,7 +9574,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I71">
         <v>0.60199999999999998</v>
@@ -9625,13 +9585,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B72">
         <v>2005</v>
       </c>
       <c r="C72" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D72" s="1">
         <v>17119000</v>
@@ -9640,7 +9600,7 @@
         <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I72">
         <v>834.8</v>
@@ -9651,13 +9611,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B73">
         <v>2005</v>
       </c>
       <c r="C73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D73" s="1">
         <v>19338000</v>
@@ -9666,7 +9626,7 @@
         <v>6</v>
       </c>
       <c r="H73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I73" s="3">
         <v>1005.9</v>
@@ -9677,13 +9637,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B74">
         <v>2005</v>
       </c>
       <c r="C74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D74" s="1">
         <v>20129000</v>
@@ -9692,7 +9652,7 @@
         <v>7</v>
       </c>
       <c r="H74" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I74" s="3">
         <v>1083.5999999999999</v>
@@ -9709,7 +9669,7 @@
         <v>1980</v>
       </c>
       <c r="C75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D75" s="1">
         <v>294660</v>
@@ -9721,7 +9681,7 @@
         <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I75">
         <v>1.8879999999999999</v>
@@ -9732,13 +9692,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B76">
         <v>2005</v>
       </c>
       <c r="C76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D76" s="1">
         <v>136500</v>
@@ -9747,7 +9707,7 @@
         <v>7</v>
       </c>
       <c r="H76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I76">
         <v>0.59399999999999997</v>
@@ -9764,7 +9724,7 @@
         <v>1684</v>
       </c>
       <c r="C77" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D77" s="1">
         <v>377400</v>
@@ -9773,7 +9733,7 @@
         <v>1120</v>
       </c>
       <c r="H77" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I77">
         <v>2.7370000000000001</v>
@@ -9790,7 +9750,7 @@
         <v>1789</v>
       </c>
       <c r="C78" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D78" s="1">
         <v>238020</v>
@@ -9799,7 +9759,7 @@
         <v>498</v>
       </c>
       <c r="H78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I78">
         <v>1.37</v>
@@ -9816,7 +9776,7 @@
         <v>1966</v>
       </c>
       <c r="C79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D79" s="1">
         <v>151422</v>
@@ -9828,7 +9788,7 @@
         <v>138</v>
       </c>
       <c r="H79" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I79">
         <v>0.69399999999999995</v>
@@ -9839,13 +9799,13 @@
     </row>
     <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B80">
         <v>2000</v>
       </c>
       <c r="C80" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D80" s="1">
         <v>17611000</v>
@@ -9854,7 +9814,7 @@
         <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I80">
         <v>871.17</v>
@@ -9865,13 +9825,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B81">
         <v>2005</v>
       </c>
       <c r="C81" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D81" s="1">
         <v>20390000</v>
@@ -9880,7 +9840,7 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I81" s="3">
         <v>1086.0999999999999</v>
@@ -9891,13 +9851,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82">
         <v>2005</v>
       </c>
       <c r="C82" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D82" s="1">
         <v>22453000</v>
@@ -9906,7 +9866,7 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I82" s="3">
         <v>1260.3</v>
@@ -9917,13 +9877,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B83">
         <v>2005</v>
       </c>
       <c r="C83" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D83" s="1">
         <v>25108000</v>
@@ -9932,7 +9892,7 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I83" s="3">
         <v>1490.9</v>
@@ -9943,13 +9903,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B84">
         <v>2006</v>
       </c>
       <c r="C84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D84" s="1">
         <v>18206000</v>
@@ -9958,7 +9918,7 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I84">
         <v>921.2</v>
@@ -9969,13 +9929,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B85">
         <v>2005</v>
       </c>
       <c r="C85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D85" s="1">
         <v>19856000</v>
@@ -9984,7 +9944,7 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I85" s="3">
         <v>1038.7</v>
@@ -10001,7 +9961,7 @@
         <v>1980</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D86" s="1">
         <v>377400</v>
@@ -10013,7 +9973,7 @@
         <v>36</v>
       </c>
       <c r="H86" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I86">
         <v>2.7370000000000001</v>
@@ -10030,7 +9990,7 @@
         <v>1848</v>
       </c>
       <c r="C87" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D87" s="1">
         <v>1481000</v>
@@ -10042,7 +10002,7 @@
         <v>360</v>
       </c>
       <c r="H87" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I87">
         <v>21.277000000000001</v>
@@ -10053,13 +10013,13 @@
     </row>
     <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B88">
         <v>2006</v>
       </c>
       <c r="C88" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D88" s="1">
         <v>18437000</v>
@@ -10068,7 +10028,7 @@
         <v>8</v>
       </c>
       <c r="H88" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I88">
         <v>931.8</v>
@@ -10085,7 +10045,7 @@
         <v>1671</v>
       </c>
       <c r="C89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D89" s="1">
         <v>3561300</v>
@@ -10094,7 +10054,7 @@
         <v>1436</v>
       </c>
       <c r="H89" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I89">
         <v>79.3215</v>
@@ -10105,13 +10065,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B90">
         <v>2000</v>
       </c>
       <c r="C90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D90" s="1">
         <v>11440000</v>
@@ -10120,7 +10080,7 @@
         <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I90">
         <v>451.48</v>
@@ -10137,7 +10097,7 @@
         <v>1966</v>
       </c>
       <c r="C91" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D91" s="1">
         <v>151472</v>
@@ -10149,7 +10109,7 @@
         <v>190</v>
       </c>
       <c r="H91" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I91">
         <v>0.69499999999999995</v>
@@ -10160,13 +10120,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B92">
         <v>2006</v>
       </c>
       <c r="C92" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D92" s="1">
         <v>18811000</v>
@@ -10175,7 +10135,7 @@
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I92">
         <v>964.7</v>
@@ -10186,13 +10146,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B93">
         <v>2006</v>
       </c>
       <c r="C93" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D93" s="1">
         <v>22118000</v>
@@ -10201,7 +10161,7 @@
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I93" s="3">
         <v>1233.5999999999999</v>
@@ -10212,13 +10172,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B94">
         <v>2000</v>
       </c>
       <c r="C94" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D94" s="1">
         <v>11365000</v>
@@ -10227,7 +10187,7 @@
         <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I94">
         <v>449.22</v>
@@ -10238,13 +10198,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B95">
         <v>2006</v>
       </c>
       <c r="C95" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D95" s="1">
         <v>23065000</v>
@@ -10253,7 +10213,7 @@
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I95" s="3">
         <v>1312</v>
@@ -10270,7 +10230,7 @@
         <v>2004</v>
       </c>
       <c r="C96" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D96" s="1">
         <v>194000</v>
@@ -10279,7 +10239,7 @@
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I96">
         <v>1.01</v>
@@ -10296,7 +10256,7 @@
         <v>1789</v>
       </c>
       <c r="C97" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D97" s="1">
         <v>185520</v>
@@ -10305,7 +10265,7 @@
         <v>398</v>
       </c>
       <c r="H97" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I97">
         <v>0.94199999999999995</v>
@@ -10316,13 +10276,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B98">
         <v>2000</v>
       </c>
       <c r="C98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D98" s="1">
         <v>18709000</v>
@@ -10331,7 +10291,7 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I98">
         <v>951.38</v>
@@ -10342,13 +10302,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B99">
         <v>2003</v>
       </c>
       <c r="C99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D99" s="1">
         <v>18719000</v>
@@ -10357,7 +10317,7 @@
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I99">
         <v>956.2</v>
@@ -10368,13 +10328,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B100">
         <v>2000</v>
       </c>
       <c r="C100" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D100" s="1">
         <v>15199000</v>
@@ -10383,7 +10343,7 @@
         <v>25</v>
       </c>
       <c r="H100" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I100">
         <v>686.92</v>
@@ -10394,13 +10354,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B101">
         <v>2004</v>
       </c>
       <c r="C101" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D101" s="1">
         <v>211000</v>
@@ -10409,7 +10369,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I101">
         <v>1.1399999999999999</v>
@@ -10426,7 +10386,7 @@
         <v>1990</v>
       </c>
       <c r="C102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D102" s="1">
         <v>133630</v>
@@ -10435,7 +10395,7 @@
         <v>19.32</v>
       </c>
       <c r="H102" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I102">
         <v>0.57499999999999996</v>
@@ -10452,7 +10412,7 @@
         <v>1980</v>
       </c>
       <c r="C103" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D103" s="1">
         <v>141700</v>
@@ -10464,7 +10424,7 @@
         <v>110</v>
       </c>
       <c r="H103" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I103">
         <v>0.629</v>
@@ -10481,7 +10441,7 @@
         <v>1898</v>
       </c>
       <c r="C104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D104" s="1">
         <v>12952000</v>
@@ -10490,7 +10450,7 @@
         <v>220</v>
       </c>
       <c r="H104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I104">
         <v>550.48</v>
@@ -10501,13 +10461,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B105">
         <v>2004</v>
       </c>
       <c r="C105" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D105" s="1">
         <v>377400</v>
@@ -10516,7 +10476,7 @@
         <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I105">
         <v>2.74</v>
@@ -10533,7 +10493,7 @@
         <v>1980</v>
       </c>
       <c r="C106" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D106" s="1">
         <v>139350</v>
@@ -10545,7 +10505,7 @@
         <v>68</v>
       </c>
       <c r="H106" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I106">
         <v>0.61299999999999999</v>
@@ -10562,7 +10522,7 @@
         <v>1672</v>
       </c>
       <c r="C107" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D107" s="1">
         <v>527040</v>
@@ -10571,7 +10531,7 @@
         <v>1528</v>
       </c>
       <c r="H107" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I107">
         <v>4.5179999999999998</v>
@@ -10582,13 +10542,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B108">
         <v>2000</v>
       </c>
       <c r="C108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D108" s="1">
         <v>18160000</v>
@@ -10597,7 +10557,7 @@
         <v>45</v>
       </c>
       <c r="H108" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I108">
         <v>893.07</v>
@@ -10608,13 +10568,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B109">
         <v>2000</v>
       </c>
       <c r="C109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D109" s="1">
         <v>15645000</v>
@@ -10623,7 +10583,7 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I109">
         <v>728.93</v>
@@ -10634,13 +10594,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B110">
         <v>2006</v>
       </c>
       <c r="C110" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D110" s="1">
         <v>17665000</v>
@@ -10649,7 +10609,7 @@
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I110">
         <v>878.3</v>
@@ -10660,13 +10620,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B111">
         <v>2006</v>
       </c>
       <c r="C111" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D111" s="1">
         <v>22707000</v>
@@ -10675,7 +10635,7 @@
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I111" s="3">
         <v>1297.7</v>
@@ -10686,13 +10646,13 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B112">
         <v>2000</v>
       </c>
       <c r="C112" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D112" s="1">
         <v>19470000</v>
@@ -10701,7 +10661,7 @@
         <v>7</v>
       </c>
       <c r="H112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I112">
         <v>1016.8</v>
@@ -10712,13 +10672,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B113">
         <v>2004</v>
       </c>
       <c r="C113" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D113" s="1">
         <v>19800000</v>
@@ -10727,7 +10687,7 @@
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I113" s="1">
         <v>1103</v>
@@ -10738,13 +10698,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B114">
         <v>2004</v>
       </c>
       <c r="C114" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D114" s="1">
         <v>19650000</v>
@@ -10753,7 +10713,7 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I114" s="1">
         <v>1048</v>
@@ -10764,13 +10724,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B115">
         <v>2004</v>
       </c>
       <c r="C115" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D115" s="1">
         <v>18450000</v>
@@ -10779,7 +10739,7 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I115">
         <v>906</v>
@@ -10790,13 +10750,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B116">
         <v>2004</v>
       </c>
       <c r="C116" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D116" s="1">
         <v>18600000</v>
@@ -10805,7 +10765,7 @@
         <v>4</v>
       </c>
       <c r="H116" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I116">
         <v>986</v>
@@ -10816,13 +10776,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B117">
         <v>2006</v>
       </c>
       <c r="C117" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D117" s="1">
         <v>18981135</v>
@@ -10831,7 +10791,7 @@
         <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I117">
         <v>970</v>
@@ -10842,13 +10802,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B118">
         <v>2006</v>
       </c>
       <c r="C118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D118" s="1">
         <v>21132000</v>
@@ -10857,7 +10817,7 @@
         <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I118" s="1">
         <v>1142</v>
@@ -10868,13 +10828,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B119">
         <v>2007</v>
       </c>
       <c r="C119" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D119" s="1">
         <v>16560000</v>
@@ -10883,7 +10843,7 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I119">
         <v>800</v>
@@ -10894,13 +10854,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B120">
         <v>2007</v>
       </c>
       <c r="C120" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D120" s="1">
         <v>20518500</v>
@@ -10909,7 +10869,7 @@
         <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I120" s="1">
         <v>1100</v>
@@ -10920,13 +10880,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B121">
         <v>2007</v>
       </c>
       <c r="C121" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D121" s="1">
         <v>18009000</v>
@@ -10935,7 +10895,7 @@
         <v>7</v>
       </c>
       <c r="H121" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I121">
         <v>887.5</v>
@@ -10946,13 +10906,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B122">
         <v>2000</v>
       </c>
       <c r="C122" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D122" s="1">
         <v>18239000</v>
@@ -10961,7 +10921,7 @@
         <v>16</v>
       </c>
       <c r="H122" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I122">
         <v>925.7</v>
@@ -10978,7 +10938,7 @@
         <v>1980</v>
       </c>
       <c r="C123" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D123" s="1">
         <v>294660</v>
@@ -10990,7 +10950,7 @@
         <v>30</v>
       </c>
       <c r="H123" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I123">
         <v>1.8879999999999999</v>
@@ -11007,7 +10967,7 @@
         <v>1684</v>
       </c>
       <c r="C124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D124" s="1">
         <v>294660</v>
@@ -11016,7 +10976,7 @@
         <v>1060</v>
       </c>
       <c r="H124" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I124">
         <v>1.8879999999999999</v>
@@ -11027,13 +10987,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B125">
         <v>2000</v>
       </c>
       <c r="C125" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D125" s="1">
         <v>20470000</v>
@@ -11042,7 +11002,7 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I125">
         <v>1088.8900000000001</v>
@@ -11059,7 +11019,7 @@
         <v>1655</v>
       </c>
       <c r="C126" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D126" s="1">
         <v>1221850</v>
@@ -11068,7 +11028,7 @@
         <v>5150</v>
       </c>
       <c r="H126" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I126">
         <v>15.945</v>
@@ -11079,13 +11039,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B127">
         <v>2000</v>
       </c>
       <c r="C127" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D127" s="1">
         <v>23096000</v>
@@ -11094,7 +11054,7 @@
         <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I127">
         <v>1312.37</v>
@@ -11105,13 +11065,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B128">
         <v>1851</v>
       </c>
       <c r="C128" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D128" s="1">
         <v>191240</v>
@@ -11120,7 +11080,7 @@
         <v>1160</v>
       </c>
       <c r="H128" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I128">
         <v>2.52</v>
@@ -11131,13 +11091,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B129">
         <v>1986</v>
       </c>
       <c r="C129" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D129" s="1">
         <v>75260</v>
@@ -11146,7 +11106,7 @@
         <v>66</v>
       </c>
       <c r="H129" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I129">
         <v>0.624</v>
@@ -11157,13 +11117,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B130">
         <v>1986</v>
       </c>
       <c r="C130" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D130" s="1">
         <v>75260</v>
@@ -11172,7 +11132,7 @@
         <v>42</v>
       </c>
       <c r="H130" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I130">
         <v>0.433</v>
@@ -11183,13 +11143,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B131">
         <v>1997</v>
       </c>
       <c r="C131" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D131" s="1">
         <v>7200000</v>
@@ -11198,7 +11158,7 @@
         <v>80</v>
       </c>
       <c r="H131" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I131">
         <v>579.5</v>
@@ -11209,13 +11169,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B132">
         <v>1986</v>
       </c>
       <c r="C132" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D132" s="1">
         <v>49750</v>
@@ -11224,7 +11184,7 @@
         <v>26</v>
       </c>
       <c r="H132" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I132">
         <v>0.33500000000000002</v>
@@ -11235,13 +11195,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B133">
         <v>1986</v>
       </c>
       <c r="C133" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D133" s="1">
         <v>61770</v>
@@ -11250,7 +11210,7 @@
         <v>62</v>
       </c>
       <c r="H133" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I133">
         <v>0.46400000000000002</v>
@@ -11261,13 +11221,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B134">
         <v>2003</v>
       </c>
       <c r="C134" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D134" s="1">
         <v>74800</v>
@@ -11276,7 +11236,7 @@
         <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I134">
         <v>0.61799999999999999</v>
@@ -11287,13 +11247,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B135">
         <v>1986</v>
       </c>
       <c r="C135" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D135" s="1">
         <v>62660</v>
@@ -11302,7 +11262,7 @@
         <v>54</v>
       </c>
       <c r="H135" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I135">
         <v>0.47399999999999998</v>
@@ -11313,13 +11273,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B136">
         <v>2001</v>
       </c>
       <c r="C136" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D136" s="1">
         <v>20901000</v>
@@ -11328,7 +11288,7 @@
         <v>21</v>
       </c>
       <c r="H136" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I136" s="3">
         <v>2823.4</v>
@@ -11339,13 +11299,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B137">
         <v>2001</v>
       </c>
       <c r="C137" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D137" s="1">
         <v>4276000</v>
@@ -11354,7 +11314,7 @@
         <v>22</v>
       </c>
       <c r="H137" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I137">
         <v>266.60000000000002</v>
@@ -11365,13 +11325,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B138">
         <v>1986</v>
       </c>
       <c r="C138" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D138" s="1">
         <v>64360</v>
@@ -11380,7 +11340,7 @@
         <v>84</v>
       </c>
       <c r="H138" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I138">
         <v>0.49299999999999999</v>
@@ -11391,13 +11351,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B139">
         <v>2003</v>
       </c>
       <c r="C139" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D139" s="1">
         <v>97734</v>
@@ -11406,7 +11366,7 @@
         <v>16</v>
       </c>
       <c r="H139" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I139">
         <v>0.92300000000000004</v>
@@ -11417,13 +11377,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B140">
         <v>2003</v>
       </c>
       <c r="C140" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D140" s="1">
         <v>14688700</v>
@@ -11432,7 +11392,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I140" s="3">
         <v>1694.8</v>
@@ -11443,13 +11403,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B141">
         <v>1948</v>
       </c>
       <c r="C141" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D141" s="1">
         <v>129780</v>
@@ -11458,7 +11418,7 @@
         <v>472</v>
       </c>
       <c r="H141" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I141">
         <v>1.4139999999999999</v>
@@ -11469,13 +11429,13 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B142">
         <v>1787</v>
       </c>
       <c r="C142" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D142" s="1">
         <v>582600</v>
@@ -11484,7 +11444,7 @@
         <v>1526</v>
       </c>
       <c r="H142" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I142">
         <v>13.462999999999999</v>
@@ -11495,13 +11455,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B143">
         <v>1986</v>
       </c>
       <c r="C143" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D143" s="1">
         <v>53440</v>
@@ -11510,7 +11470,7 @@
         <v>30.4</v>
       </c>
       <c r="H143" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I143">
         <v>0.37640000000000001</v>
@@ -11521,13 +11481,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B144">
         <v>1986</v>
       </c>
       <c r="C144" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D144" s="1">
         <v>76420</v>
@@ -11536,7 +11496,7 @@
         <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I144">
         <v>0.63800000000000001</v>
@@ -11547,13 +11507,13 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B145">
         <v>1986</v>
       </c>
       <c r="C145" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D145" s="1">
         <v>66085</v>
@@ -11562,7 +11522,7 @@
         <v>108</v>
       </c>
       <c r="H145" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I145">
         <v>0.51300000000000001</v>
@@ -11573,13 +11533,13 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B146">
         <v>1999</v>
       </c>
       <c r="C146" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D146" s="1">
         <v>16256000</v>
@@ -11588,7 +11548,7 @@
         <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I146">
         <v>5.3460000000000001</v>
@@ -11599,13 +11559,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B147">
         <v>1985</v>
       </c>
       <c r="C147" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D147" s="1">
         <v>86010</v>
@@ -11614,7 +11574,7 @@
         <v>154</v>
       </c>
       <c r="H147" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I147">
         <v>0.76200000000000001</v>
@@ -11625,13 +11585,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B148">
         <v>1986</v>
       </c>
       <c r="C148" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D148" s="1">
         <v>69941</v>
@@ -11640,7 +11600,7 @@
         <v>54</v>
       </c>
       <c r="H148" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I148">
         <v>0.55800000000000005</v>
@@ -11651,13 +11611,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B149">
         <v>1999</v>
       </c>
       <c r="C149" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D149" s="1">
         <v>17418000</v>
@@ -11666,7 +11626,7 @@
         <v>47</v>
       </c>
       <c r="H149" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I149" s="3">
         <v>2234.8000000000002</v>
@@ -11677,13 +11637,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B150">
         <v>1999</v>
       </c>
       <c r="C150" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D150" s="1">
         <v>8004000</v>
@@ -11692,7 +11652,7 @@
         <v>32</v>
       </c>
       <c r="H150" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I150">
         <v>677.4</v>
@@ -11703,13 +11663,13 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B151">
         <v>1997</v>
       </c>
       <c r="C151" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D151" s="1">
         <v>12200000</v>
@@ -11718,7 +11678,7 @@
         <v>160</v>
       </c>
       <c r="H151" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I151">
         <v>1283.3900000000001</v>
@@ -11729,13 +11689,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B152">
         <v>1787</v>
       </c>
       <c r="C152" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D152" s="1">
         <v>435840</v>
@@ -11746,7 +11706,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I152">
         <v>8.7059999999999995</v>
@@ -11757,13 +11717,13 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B153">
         <v>2001</v>
       </c>
       <c r="C153" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D153" s="1">
         <v>8578000</v>
@@ -11772,7 +11732,7 @@
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I153">
         <v>759</v>
@@ -11783,13 +11743,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B154">
         <v>1851</v>
       </c>
       <c r="C154" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D154" s="1">
         <v>265970</v>
@@ -11798,7 +11758,7 @@
         <v>1190</v>
       </c>
       <c r="H154" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I154">
         <v>4.1440000000000001</v>
@@ -11809,13 +11769,13 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B155">
         <v>1989</v>
       </c>
       <c r="C155" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D155" s="1">
         <v>62000</v>
@@ -11824,7 +11784,7 @@
         <v>160</v>
       </c>
       <c r="H155" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I155">
         <v>0.4</v>
@@ -11835,13 +11795,13 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B156">
         <v>1989</v>
       </c>
       <c r="C156" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D156" s="1">
         <v>52500</v>
@@ -11850,7 +11810,7 @@
         <v>140</v>
       </c>
       <c r="H156" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I156">
         <v>0.33</v>
@@ -11861,13 +11821,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B157">
         <v>2002</v>
       </c>
       <c r="C157" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D157" s="1">
         <v>15686000</v>
@@ -11876,7 +11836,7 @@
         <v>60</v>
       </c>
       <c r="H157" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I157" s="3">
         <v>1874.83</v>
@@ -11887,13 +11847,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B158">
         <v>1989</v>
       </c>
       <c r="C158" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D158" s="1">
         <v>73600</v>
@@ -11902,7 +11862,7 @@
         <v>200</v>
       </c>
       <c r="H158" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I158">
         <v>0.56000000000000005</v>
@@ -11913,13 +11873,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B159">
         <v>2002</v>
       </c>
       <c r="C159" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D159" s="1">
         <v>22613200</v>
@@ -11928,7 +11888,7 @@
         <v>38</v>
       </c>
       <c r="H159" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I159" s="3">
         <v>2980.4</v>
@@ -11939,13 +11899,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B160">
         <v>1989</v>
       </c>
       <c r="C160" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D160" s="1">
         <v>48200</v>
@@ -11954,7 +11914,7 @@
         <v>50</v>
       </c>
       <c r="H160" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I160">
         <v>0.3</v>
@@ -11965,13 +11925,13 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B161">
         <v>1949</v>
       </c>
       <c r="C161" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D161" s="1">
         <v>5513400</v>
@@ -11980,7 +11940,7 @@
         <v>340</v>
       </c>
       <c r="H161" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I161">
         <v>360.16</v>
@@ -11991,13 +11951,13 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B162">
         <v>2002</v>
       </c>
       <c r="C162" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D162" s="1">
         <v>47279670</v>
@@ -12006,7 +11966,7 @@
         <v>60</v>
       </c>
       <c r="H162" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I162" s="3">
         <v>9007.1</v>
@@ -12017,13 +11977,13 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B163">
         <v>1989</v>
       </c>
       <c r="C163" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D163" s="1">
         <v>117600</v>
@@ -12032,7 +11992,7 @@
         <v>420</v>
       </c>
       <c r="H163" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I163">
         <v>1.1200000000000001</v>
@@ -12043,13 +12003,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B164">
         <v>2003</v>
       </c>
       <c r="C164" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D164" s="1">
         <v>46738000</v>
@@ -12058,7 +12018,7 @@
         <v>38</v>
       </c>
       <c r="H164" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I164" s="3">
         <v>9136.11</v>
@@ -12069,13 +12029,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B165">
         <v>2002</v>
       </c>
       <c r="C165" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D165" s="1">
         <v>22337190</v>
@@ -12084,7 +12044,7 @@
         <v>38</v>
       </c>
       <c r="H165" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I165" s="3">
         <v>2925.6</v>
@@ -12095,13 +12055,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B166">
         <v>1989</v>
       </c>
       <c r="C166" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D166" s="1">
         <v>50000</v>
@@ -12110,7 +12070,7 @@
         <v>90</v>
       </c>
       <c r="H166" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I166">
         <v>0.31</v>
@@ -12121,13 +12081,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B167">
         <v>1846</v>
       </c>
       <c r="C167" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D167" s="1">
         <v>354800</v>
@@ -12136,7 +12096,7 @@
         <v>2705</v>
       </c>
       <c r="H167" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I167">
         <v>5.8769999999999998</v>
@@ -12147,13 +12107,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B168">
         <v>1978</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D168" s="1">
         <v>19571</v>
@@ -12164,7 +12124,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I168">
         <v>6.3869999999999996</v>
@@ -12175,13 +12135,13 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B169">
         <v>2005</v>
       </c>
       <c r="C169" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D169" s="1">
         <v>48675</v>
@@ -12193,7 +12153,7 @@
         <v>130</v>
       </c>
       <c r="H169" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I169">
         <v>24.856000000000002</v>
@@ -12204,13 +12164,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B170">
         <v>2005</v>
       </c>
       <c r="C170" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D170" s="1">
         <v>64780</v>
@@ -12222,7 +12182,7 @@
         <v>130</v>
       </c>
       <c r="H170" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I170">
         <v>38.206000000000003</v>
@@ -12233,13 +12193,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B171">
         <v>2005</v>
       </c>
       <c r="C171" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D171" s="1">
         <v>39000</v>
@@ -12248,24 +12208,24 @@
         <v>170</v>
       </c>
       <c r="H171" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I171">
         <v>34.700000000000003</v>
       </c>
       <c r="J171" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B172">
         <v>2005</v>
       </c>
       <c r="C172" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D172" s="1">
         <v>49500</v>
@@ -12274,24 +12234,24 @@
         <v>310</v>
       </c>
       <c r="H172" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I172">
         <v>49.12</v>
       </c>
       <c r="J172" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B173">
         <v>2005</v>
       </c>
       <c r="C173" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D173" s="1">
         <v>33000</v>
@@ -12300,13 +12260,13 @@
         <v>300</v>
       </c>
       <c r="H173" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I173">
         <v>14</v>
       </c>
       <c r="J173" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -12326,47 +12286,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
